--- a/my1stProject/chip_example/chip_example.xlsx
+++ b/my1stProject/chip_example/chip_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -3471,7 +3471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -6252,9 +6252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/my1stProject/chip_example/chip_example.xlsx
+++ b/my1stProject/chip_example/chip_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="468">
   <si>
     <t>Component Name</t>
   </si>
@@ -1456,9 +1456,6 @@
     <t>Sheet name</t>
   </si>
   <si>
-    <t>AMS_Discipline</t>
-  </si>
-  <si>
     <t>BusInterfaceRef</t>
   </si>
   <si>
@@ -1543,9 +1540,6 @@
     <t>addressSpaceDescription</t>
   </si>
   <si>
-    <t>Spec_Type</t>
-  </si>
-  <si>
     <t>addr_width</t>
   </si>
   <si>
@@ -1588,15 +1582,6 @@
     <t>hready</t>
   </si>
   <si>
-    <t>hrdata[31:0]</t>
-  </si>
-  <si>
-    <t>haddr[3:0]</t>
-  </si>
-  <si>
-    <t>hwdata[31:0]</t>
-  </si>
-  <si>
     <t>B2_idsReg1_enb</t>
   </si>
   <si>
@@ -1639,9 +1624,6 @@
     <t>amba_widget</t>
   </si>
   <si>
-    <t>soce,example,1,amba_widget.v</t>
-  </si>
-  <si>
     <t>soce</t>
   </si>
   <si>
@@ -1655,6 +1637,51 @@
   </si>
   <si>
     <t>kirti</t>
+  </si>
+  <si>
+    <t>hrdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hwdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>haddr[$addr_width -1:0]</t>
+  </si>
+  <si>
+    <t>soce,example,amba_widget,1</t>
+  </si>
+  <si>
+    <t>hrdata</t>
+  </si>
+  <si>
+    <t>hresp</t>
+  </si>
+  <si>
+    <t>htrans</t>
+  </si>
+  <si>
+    <t>haddr</t>
+  </si>
+  <si>
+    <t>hsize</t>
+  </si>
+  <si>
+    <t>hprot</t>
+  </si>
+  <si>
+    <t>hwdata</t>
+  </si>
+  <si>
+    <t>hbrust</t>
+  </si>
+  <si>
+    <t>{connectionRequired=true}</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>spec_type</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +3253,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3237,7 +3264,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="95" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3471,7 +3498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -3522,22 +3549,22 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="109" t="str">
         <f>ids_template!B88</f>
-        <v>Spec_Type</v>
+        <v>spec_type</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E3" s="110" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F3" s="110">
         <v>1</v>
       </c>
       <c r="G3" s="110" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,7 +3578,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="str">
         <f>ids_template!B91</f>
-        <v>AMS_Discipline</v>
+        <v>ams_discipline</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3581,7 +3608,7 @@
   <dimension ref="A2:F191"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,7 +4665,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="63" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="C88" s="64" t="s">
         <v>185</v>
@@ -4671,7 +4698,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>189</v>
@@ -4863,7 +4890,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C109" s="64" t="s">
         <v>249</v>
@@ -4946,7 +4973,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C117" s="64" t="s">
         <v>251</v>
@@ -4982,7 +5009,7 @@
         <v>365</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D120" s="65"/>
       <c r="E120" s="66"/>
@@ -4993,7 +5020,7 @@
         <v>364</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D121" s="65"/>
       <c r="E121" s="66"/>
@@ -5062,7 +5089,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C128" s="64" t="s">
         <v>328</v>
@@ -5106,7 +5133,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C132" s="64" t="s">
         <v>335</v>
@@ -5117,7 +5144,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C133" s="64" t="s">
         <v>336</v>
@@ -5163,7 +5190,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C138" s="64" t="s">
         <v>340</v>
@@ -5185,7 +5212,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C140" s="64" t="s">
         <v>343</v>
@@ -5196,7 +5223,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C141" s="64" t="s">
         <v>344</v>
@@ -5207,7 +5234,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C142" s="64" t="s">
         <v>345</v>
@@ -5235,7 +5262,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C145" s="64" t="s">
         <v>347</v>
@@ -5246,7 +5273,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C146" s="64" t="s">
         <v>348</v>
@@ -5268,7 +5295,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C148" s="64" t="s">
         <v>351</v>
@@ -5279,7 +5306,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C149" s="64" t="s">
         <v>352</v>
@@ -5290,7 +5317,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C150" s="64" t="s">
         <v>353</v>
@@ -5311,7 +5338,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C152" s="64" t="s">
         <v>279</v>
@@ -5404,7 +5431,7 @@
         <v>367</v>
       </c>
       <c r="C161" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D161" s="65"/>
       <c r="E161" s="66"/>
@@ -5412,10 +5439,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="C162" s="64" t="s">
         <v>411</v>
-      </c>
-      <c r="C162" s="64" t="s">
-        <v>412</v>
       </c>
       <c r="D162" s="65"/>
       <c r="E162" s="66"/>
@@ -5426,7 +5453,7 @@
         <v>369</v>
       </c>
       <c r="C163" s="64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D163" s="65"/>
       <c r="E163" s="66"/>
@@ -5437,7 +5464,7 @@
         <v>370</v>
       </c>
       <c r="C164" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D164" s="65"/>
       <c r="E164" s="66"/>
@@ -5448,7 +5475,7 @@
         <v>371</v>
       </c>
       <c r="C165" s="64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D165" s="65"/>
       <c r="E165" s="66"/>
@@ -5459,7 +5486,7 @@
         <v>372</v>
       </c>
       <c r="C166" s="64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D166" s="65"/>
       <c r="E166" s="66"/>
@@ -5470,7 +5497,7 @@
         <v>373</v>
       </c>
       <c r="C167" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D167" s="65"/>
       <c r="E167" s="66"/>
@@ -5481,7 +5508,7 @@
         <v>363</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D168" s="65"/>
       <c r="E168" s="66"/>
@@ -5489,10 +5516,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D169" s="65"/>
       <c r="E169" s="66"/>
@@ -5726,7 +5753,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D4" s="7">
         <v>4</v>
@@ -5736,7 +5763,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D5" s="7">
         <v>32</v>
@@ -5804,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5840,11 +5867,11 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>ids_template!B88</f>
-        <v>Spec_Type</v>
+        <v>spec_type</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>ids_template!B91</f>
-        <v>AMS_Discipline</v>
+        <v>ams_discipline</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>11</v>
@@ -5852,20 +5879,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5873,10 +5900,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5884,10 +5911,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5895,10 +5922,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5906,10 +5933,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5917,10 +5944,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5928,10 +5955,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5939,10 +5966,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5950,10 +5977,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5961,10 +5988,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5972,10 +5999,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5983,10 +6010,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5994,10 +6021,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6005,10 +6032,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6016,10 +6043,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6027,10 +6054,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6038,10 +6065,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6049,10 +6076,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6060,10 +6087,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6071,10 +6098,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -6082,10 +6109,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -6093,10 +6120,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -6104,10 +6131,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -6115,10 +6142,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -6126,10 +6153,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6254,7 +6281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6320,14 +6347,16 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="E3" s="110" t="s">
+        <v>465</v>
+      </c>
       <c r="F3" s="110"/>
       <c r="G3" s="110"/>
       <c r="H3" s="110"/>
@@ -6339,10 +6368,10 @@
       <c r="A4" s="16"/>
       <c r="B4" s="14"/>
       <c r="C4" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6356,10 +6385,10 @@
       <c r="A5" s="18"/>
       <c r="B5" s="14"/>
       <c r="C5" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6373,10 +6402,10 @@
       <c r="A6" s="16"/>
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6390,10 +6419,10 @@
       <c r="A7" s="16"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6407,10 +6436,10 @@
       <c r="A8" s="16"/>
       <c r="B8" s="14"/>
       <c r="C8" s="11" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6424,10 +6453,10 @@
       <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="11" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6441,10 +6470,10 @@
       <c r="A10" s="16"/>
       <c r="B10" s="14"/>
       <c r="C10" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6458,10 +6487,10 @@
       <c r="A11" s="16"/>
       <c r="B11" s="14"/>
       <c r="C11" s="11" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6475,10 +6504,10 @@
       <c r="A12" s="16"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6492,10 +6521,10 @@
       <c r="A13" s="16"/>
       <c r="B13" s="14"/>
       <c r="C13" s="11" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6509,10 +6538,10 @@
       <c r="A14" s="16"/>
       <c r="B14" s="14"/>
       <c r="C14" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6526,10 +6555,10 @@
       <c r="A15" s="16"/>
       <c r="B15" s="14"/>
       <c r="C15" s="11" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6543,10 +6572,10 @@
       <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7379,7 +7408,7 @@
         <v>363</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/my1stProject/chip_example/chip_example.xlsx
+++ b/my1stProject/chip_example/chip_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -1576,9 +1576,6 @@
     <t>hsel</t>
   </si>
   <si>
-    <t>hbrust[2:0]</t>
-  </si>
-  <si>
     <t>hready</t>
   </si>
   <si>
@@ -1672,16 +1669,19 @@
     <t>hwdata</t>
   </si>
   <si>
-    <t>hbrust</t>
-  </si>
-  <si>
-    <t>{connectionRequired=true}</t>
-  </si>
-  <si>
     <t>ams_discipline</t>
   </si>
   <si>
     <t>spec_type</t>
+  </si>
+  <si>
+    <t>{connectionRequired=false}</t>
+  </si>
+  <si>
+    <t>hburst[2:0]</t>
+  </si>
+  <si>
+    <t>hburst</t>
   </si>
 </sst>
 </file>
@@ -2845,10 +2845,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3264,7 +3264,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3552,19 +3552,19 @@
         <v>spec_type</v>
       </c>
       <c r="C3" s="110" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="110" t="s">
         <v>448</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="E3" s="110" t="s">
         <v>449</v>
-      </c>
-      <c r="E3" s="110" t="s">
-        <v>450</v>
       </c>
       <c r="F3" s="110">
         <v>1</v>
       </c>
       <c r="G3" s="110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="63" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C88" s="64" t="s">
         <v>185</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>189</v>
@@ -5831,9 +5831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>425</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>423</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>423</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>423</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>425</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C16" s="93" t="s">
         <v>425</v>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" s="93" t="s">
         <v>425</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>423</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C19" s="93" t="s">
         <v>423</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="93" t="s">
         <v>425</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C21" s="93" t="s">
         <v>423</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>425</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>423</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>423</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>425</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>423</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>423</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>425</v>
@@ -6279,9 +6279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
@@ -6402,10 +6402,10 @@
       <c r="A6" s="16"/>
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6419,7 +6419,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>426</v>
@@ -6436,7 +6436,7 @@
       <c r="A8" s="16"/>
       <c r="B8" s="14"/>
       <c r="C8" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>427</v>
@@ -6453,10 +6453,10 @@
       <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6487,7 +6487,7 @@
       <c r="A11" s="16"/>
       <c r="B11" s="14"/>
       <c r="C11" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>429</v>
@@ -6504,7 +6504,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>430</v>
@@ -6521,10 +6521,10 @@
       <c r="A13" s="16"/>
       <c r="B13" s="14"/>
       <c r="C13" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6555,10 +6555,10 @@
       <c r="A15" s="16"/>
       <c r="B15" s="14"/>
       <c r="C15" s="11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6572,10 +6572,10 @@
       <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7360,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,7 +7532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7600,7 +7600,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="164"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
       <c r="E3" s="113"/>
@@ -7614,8 +7614,8 @@
       <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="166"/>
       <c r="E4" s="167"/>
       <c r="F4" s="114"/>
@@ -7628,8 +7628,8 @@
       <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
       <c r="D5" s="166"/>
       <c r="E5" s="167"/>
       <c r="F5" s="114"/>
@@ -7642,8 +7642,8 @@
       <c r="M5" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="166"/>
       <c r="E6" s="167"/>
       <c r="F6" s="114"/>
@@ -7656,8 +7656,8 @@
       <c r="M6" s="117"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
       <c r="D7" s="166"/>
       <c r="E7" s="167"/>
       <c r="F7" s="114"/>
@@ -7670,8 +7670,8 @@
       <c r="M7" s="117"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
       <c r="D8" s="166"/>
       <c r="E8" s="167"/>
       <c r="F8" s="114"/>
@@ -7684,7 +7684,7 @@
       <c r="M8" s="123"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="91"/>
       <c r="D9" s="112"/>
       <c r="E9" s="113"/>
@@ -7698,7 +7698,7 @@
       <c r="M9" s="123"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="111"/>
       <c r="D10" s="112"/>
       <c r="E10" s="113"/>
@@ -7712,7 +7712,7 @@
       <c r="M10" s="112"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="164"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="125"/>
       <c r="D11" s="117"/>
       <c r="E11" s="126"/>
@@ -7726,8 +7726,8 @@
       <c r="M11" s="117"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="165"/>
-      <c r="C12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
       <c r="D12" s="166"/>
       <c r="E12" s="113"/>
       <c r="F12" s="114"/>
@@ -7740,8 +7740,8 @@
       <c r="M12" s="123"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
       <c r="D13" s="166"/>
       <c r="E13" s="113"/>
       <c r="F13" s="114"/>
@@ -7754,8 +7754,8 @@
       <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="165"/>
-      <c r="C14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
       <c r="D14" s="166"/>
       <c r="E14" s="113"/>
       <c r="F14" s="114"/>
@@ -7768,8 +7768,8 @@
       <c r="M14" s="123"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="165"/>
-      <c r="C15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="166"/>
       <c r="E15" s="113"/>
       <c r="F15" s="114"/>
@@ -7782,8 +7782,8 @@
       <c r="M15" s="123"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="165"/>
-      <c r="C16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="166"/>
       <c r="E16" s="113"/>
       <c r="F16" s="114"/>
@@ -7796,8 +7796,8 @@
       <c r="M16" s="123"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="165"/>
-      <c r="C17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="166"/>
       <c r="E17" s="113"/>
       <c r="F17" s="114"/>
@@ -7810,8 +7810,8 @@
       <c r="M17" s="123"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="165"/>
-      <c r="C18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="166"/>
       <c r="E18" s="113"/>
       <c r="F18" s="114"/>
@@ -7824,8 +7824,8 @@
       <c r="M18" s="123"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="165"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
       <c r="D19" s="166"/>
       <c r="E19" s="113"/>
       <c r="F19" s="114"/>
@@ -7881,12 +7881,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7897,6 +7891,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my1stProject/chip_example/chip_example.xlsx
+++ b/my1stProject/chip_example/chip_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" tabRatio="820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4200" tabRatio="820" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="483">
   <si>
     <t>Component Name</t>
   </si>
@@ -1558,21 +1558,9 @@
     <t>out</t>
   </si>
   <si>
-    <t>hresp[1:0]</t>
-  </si>
-  <si>
-    <t>htrans[1:0]</t>
-  </si>
-  <si>
     <t>hwrite</t>
   </si>
   <si>
-    <t>hsize[2:0]</t>
-  </si>
-  <si>
-    <t>hprot[3:0]</t>
-  </si>
-  <si>
     <t>hsel</t>
   </si>
   <si>
@@ -1618,9 +1606,6 @@
     <t>B1_idsReg12_F_r[31:0]</t>
   </si>
   <si>
-    <t>amba_widget</t>
-  </si>
-  <si>
     <t>soce</t>
   </si>
   <si>
@@ -1636,18 +1621,90 @@
     <t>kirti</t>
   </si>
   <si>
-    <t>hrdata[$bus_width -1:0]</t>
-  </si>
-  <si>
-    <t>hwdata[$bus_width -1:0]</t>
-  </si>
-  <si>
-    <t>haddr[$addr_width -1:0]</t>
-  </si>
-  <si>
     <t>soce,example,amba_widget,1</t>
   </si>
   <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>{connectionRequired=false}</t>
+  </si>
+  <si>
+    <t>amba_widget1</t>
+  </si>
+  <si>
+    <t>amba_widget2</t>
+  </si>
+  <si>
+    <t>hwrite1</t>
+  </si>
+  <si>
+    <t>hsel1</t>
+  </si>
+  <si>
+    <t>hready1</t>
+  </si>
+  <si>
+    <t>hwrite2</t>
+  </si>
+  <si>
+    <t>hsel2</t>
+  </si>
+  <si>
+    <t>hready2</t>
+  </si>
+  <si>
+    <t>hrdata1[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hresp1[1:0]</t>
+  </si>
+  <si>
+    <t>htrans1[1:0]</t>
+  </si>
+  <si>
+    <t>haddr1[$addr_width -1:0]</t>
+  </si>
+  <si>
+    <t>hsize1[2:0]</t>
+  </si>
+  <si>
+    <t>hprot1[3:0]</t>
+  </si>
+  <si>
+    <t>hwdata1[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hburst1[2:0]</t>
+  </si>
+  <si>
+    <t>hrdata2[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hresp2[1:0]</t>
+  </si>
+  <si>
+    <t>htrans2[1:0]</t>
+  </si>
+  <si>
+    <t>haddr2[$addr_width -1:0]</t>
+  </si>
+  <si>
+    <t>hsize2[2:0]</t>
+  </si>
+  <si>
+    <t>hprot2[3:0]</t>
+  </si>
+  <si>
+    <t>hwdata2[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hburst2[2:0]</t>
+  </si>
+  <si>
     <t>hrdata</t>
   </si>
   <si>
@@ -1667,18 +1724,6 @@
   </si>
   <si>
     <t>hwdata</t>
-  </si>
-  <si>
-    <t>ams_discipline</t>
-  </si>
-  <si>
-    <t>spec_type</t>
-  </si>
-  <si>
-    <t>{connectionRequired=false}</t>
-  </si>
-  <si>
-    <t>hburst[2:0]</t>
   </si>
   <si>
     <t>hburst</t>
@@ -2509,7 +2554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2534,7 +2579,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2664,7 +2708,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -2845,10 +2888,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3213,25 +3256,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="148" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3252,8 +3295,8 @@
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
-        <v>451</v>
+      <c r="B8" s="93" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3263,8 +3306,8 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="95" t="s">
-        <v>448</v>
+      <c r="B11" s="93" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3274,7 +3317,7 @@
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="95">
+      <c r="B14" s="93">
         <v>1</v>
       </c>
     </row>
@@ -3292,16 +3335,16 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
+      <c r="B20" s="86"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="89"/>
+      <c r="B21" s="87"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="89"/>
+      <c r="B22" s="87"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
+      <c r="B23" s="88"/>
     </row>
     <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
@@ -3309,13 +3352,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
+      <c r="B26" s="101"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="106"/>
+      <c r="B27" s="104"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="107"/>
+      <c r="B28" s="105"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
@@ -3326,7 +3369,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="91"/>
+      <c r="B32" s="89"/>
     </row>
     <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
@@ -3349,7 +3392,7 @@
       <c r="F35" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="131" t="s">
+      <c r="G35" s="129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3386,12 +3429,12 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="101"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
@@ -3414,7 +3457,7 @@
       <c r="F44" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G44" s="131" t="s">
+      <c r="G44" s="129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3451,12 +3494,12 @@
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="99"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="101"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="52" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
@@ -3467,22 +3510,22 @@
       <c r="B53" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="129" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="104"/>
-      <c r="C54" s="138"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="136"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="79"/>
+      <c r="B55" s="78"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="79"/>
+      <c r="B56" s="78"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="79"/>
+      <c r="B57" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3498,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -3515,16 +3558,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
@@ -3542,29 +3585,29 @@
       <c r="F2" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="129" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="107" t="str">
         <f>ids_template!B88</f>
         <v>spec_type</v>
       </c>
-      <c r="C3" s="110" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>448</v>
-      </c>
-      <c r="E3" s="110" t="s">
-        <v>449</v>
-      </c>
-      <c r="F3" s="110">
+      <c r="C3" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="108">
         <v>1</v>
       </c>
-      <c r="G3" s="110" t="s">
-        <v>450</v>
+      <c r="G3" s="108" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3587,12 +3630,12 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3622,2059 +3665,2059 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="176"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="176"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="178"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="36" t="s">
+      <c r="D7" s="176"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="176"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="36" t="s">
+      <c r="D9" s="176"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="36" t="s">
+      <c r="D10" s="176"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="41" t="s">
+      <c r="D11" s="176"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="41" t="s">
+      <c r="D12" s="176"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="36" t="s">
+      <c r="D13" s="176"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="36" t="s">
+      <c r="D14" s="176"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="36" t="s">
+      <c r="D15" s="176"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="46" t="s">
+      <c r="D16" s="176"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="46" t="s">
+      <c r="D17" s="176"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="46" t="s">
+      <c r="D18" s="176"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="46"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="180"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="178"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="180"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="178"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="46" t="s">
+      <c r="D23" s="176"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="46" t="s">
+      <c r="D24" s="176"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="45" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="46" t="s">
+      <c r="D25" s="176"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="46" t="s">
+      <c r="D26" s="177"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="46" t="s">
+      <c r="E27" s="178"/>
+      <c r="F27" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="181"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="46"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="46" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="45" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="46"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="46" t="s">
+      <c r="D31" s="180"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="182"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="46"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="182"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="46"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="182"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="46"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="51" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="182"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="46"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="46"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="51"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="46"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="46" t="s">
+      <c r="D38" s="180"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="46" t="s">
+      <c r="D39" s="181"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="45" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="180"/>
-      <c r="F40" s="46" t="s">
+      <c r="E40" s="178"/>
+      <c r="F40" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="180"/>
-      <c r="F41" s="46" t="s">
+      <c r="E41" s="178"/>
+      <c r="F41" s="45" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="180"/>
-      <c r="F42" s="46" t="s">
+      <c r="E42" s="178"/>
+      <c r="F42" s="45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="184"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="46" t="s">
+      <c r="D43" s="182"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="45" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="185"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="46" t="s">
+      <c r="D44" s="183"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="45" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="185"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="46"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="45"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="46"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="185"/>
-      <c r="E47" s="180"/>
-      <c r="F47" s="46" t="s">
+      <c r="D47" s="183"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="45" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="185"/>
-      <c r="E48" s="180"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="178"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="56"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="180"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="178"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="185"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="46" t="s">
+      <c r="D50" s="183"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="185"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="46" t="s">
+      <c r="D51" s="183"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="46" t="s">
+      <c r="D52" s="183"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="45" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="185"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="46" t="s">
+      <c r="D53" s="183"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="45" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="185"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="46" t="s">
+      <c r="D54" s="183"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="45" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="185"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="46" t="s">
+      <c r="D55" s="183"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="45" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="185"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="46" t="s">
+      <c r="D56" s="183"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="45" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="43"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="46"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="43" t="s">
+      <c r="A58" s="56"/>
+      <c r="B58" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="185"/>
-      <c r="E58" s="180"/>
-      <c r="F58" s="46" t="s">
+      <c r="D58" s="183"/>
+      <c r="E58" s="178"/>
+      <c r="F58" s="45" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="185"/>
-      <c r="E59" s="180"/>
-      <c r="F59" s="46" t="s">
+      <c r="D59" s="183"/>
+      <c r="E59" s="178"/>
+      <c r="F59" s="45" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="185"/>
-      <c r="E60" s="180"/>
-      <c r="F60" s="46" t="s">
+      <c r="D60" s="183"/>
+      <c r="E60" s="178"/>
+      <c r="F60" s="45" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="43" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="185"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="46" t="s">
+      <c r="D61" s="183"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="45" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="43" t="s">
+      <c r="A62" s="57"/>
+      <c r="B62" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="185"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="46" t="s">
+      <c r="D62" s="183"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="45" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="43" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="185"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="46" t="s">
+      <c r="D63" s="183"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="45" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="43" t="s">
+      <c r="A64" s="58"/>
+      <c r="B64" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="185"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="46" t="s">
+      <c r="D64" s="183"/>
+      <c r="E64" s="178"/>
+      <c r="F64" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="43" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="185"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="46" t="s">
+      <c r="D65" s="183"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="45" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="43" t="s">
+      <c r="A66" s="58"/>
+      <c r="B66" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="185"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="46" t="s">
+      <c r="D66" s="183"/>
+      <c r="E66" s="178"/>
+      <c r="F66" s="45" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="43" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="185"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="46" t="s">
+      <c r="D67" s="183"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="45" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="185"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="46" t="s">
+      <c r="D68" s="183"/>
+      <c r="E68" s="178"/>
+      <c r="F68" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="141"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="46" t="s">
+      <c r="D69" s="139"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="45" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="141"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="46"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="45"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="46" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="45" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="46"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="45"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="46"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="45"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="63"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="46"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="45"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="75" t="s">
+      <c r="C75" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="46"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="45"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="46"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="45"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="77" t="s">
+      <c r="C77" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="D77" s="65"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="46"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="45"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="77" t="s">
+      <c r="C78" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="65"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="46"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="78"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="46"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="78" t="s">
+      <c r="B80" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="77" t="s">
+      <c r="C80" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="46"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="45"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="46"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="C82" s="77" t="s">
+      <c r="C82" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D82" s="65"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="46"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="45"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="C83" s="77" t="s">
+      <c r="C83" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="46"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="45"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="63"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="46"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="45"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="46"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="45"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="64" t="s">
+      <c r="C86" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="65"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="46"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="D87" s="65"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="46"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="45"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="63" t="s">
-        <v>464</v>
-      </c>
-      <c r="C88" s="64" t="s">
+      <c r="B88" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="C88" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="46"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="45"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="63" t="s">
+      <c r="B89" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="46"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="45"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="46"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="45"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="C91" s="64" t="s">
+      <c r="B91" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="46"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="45"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="65"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="46"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="63"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="46"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="45"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="63"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="46"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="63" t="s">
+      <c r="B95" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="46"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="45"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="63" t="s">
+      <c r="B96" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="46"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="45"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="63" t="s">
+      <c r="B97" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="46"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="45"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="46"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="45"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="63" t="s">
+      <c r="B99" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="46"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="65"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="46"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="45"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="46"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="45"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="63" t="s">
+      <c r="B102" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="64" t="s">
+      <c r="C102" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="D102" s="65"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="46"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="45"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="63" t="s">
+      <c r="B103" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="46"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="45"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="64" t="s">
+      <c r="C104" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="46"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="45"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="46"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="45"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="46"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="45"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="63"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="46"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="45"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="63" t="s">
+      <c r="B108" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="64" t="s">
+      <c r="C108" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="46"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="45"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="46"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="45"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="63"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="46"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="45"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="63"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="46"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="45"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="63" t="s">
+      <c r="B112" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="46"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="45"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="63" t="s">
+      <c r="B113" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="C113" s="64" t="s">
+      <c r="C113" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="46"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="45"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="63" t="s">
+      <c r="B114" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="C114" s="64" t="s">
+      <c r="C114" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D114" s="65"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="46"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="45"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="63" t="s">
+      <c r="B115" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="C115" s="64" t="s">
+      <c r="C115" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="65"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="46"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="45"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="63" t="s">
+      <c r="B116" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="64" t="s">
+      <c r="C116" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="D116" s="65"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="46"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="63" t="s">
+      <c r="B117" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="C117" s="64" t="s">
+      <c r="C117" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="46"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="45"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="63" t="s">
+      <c r="B118" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="64" t="s">
+      <c r="C118" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="46"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="45"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="63" t="s">
+      <c r="B119" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="C119" s="64" t="s">
+      <c r="C119" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="65"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="46"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="45"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="63" t="s">
+      <c r="B120" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="C120" s="64" t="s">
+      <c r="C120" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="46"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="45"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="63" t="s">
+      <c r="B121" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="C121" s="64" t="s">
+      <c r="C121" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="D121" s="65"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="46"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="63"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="46"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="45"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="B123" s="63"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="46"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="63" t="s">
+      <c r="B124" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="46"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="45"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="63" t="s">
+      <c r="B125" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C125" s="64" t="s">
+      <c r="C125" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="D125" s="65"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="46"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="45"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="C126" s="64" t="s">
+      <c r="C126" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="46"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="45"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="63" t="s">
+      <c r="B127" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="46"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="45"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="63" t="s">
+      <c r="B128" s="62" t="s">
         <v>396</v>
       </c>
-      <c r="C128" s="64" t="s">
+      <c r="C128" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="D128" s="65"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="46"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="45"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="63" t="s">
+      <c r="B129" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="46"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="45"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="63" t="s">
+      <c r="B130" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="46"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="63" t="s">
+      <c r="B131" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="C131" s="64" t="s">
+      <c r="C131" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="D131" s="65"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="46"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="45"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="63" t="s">
+      <c r="B132" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="C132" s="64" t="s">
+      <c r="C132" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="D132" s="65"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="46"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="45"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="63" t="s">
+      <c r="B133" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="C133" s="64" t="s">
+      <c r="C133" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="D133" s="65"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="46"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="45"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="63"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="46"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="45"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="63"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="46"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="45"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="B136" s="63"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="46"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="45"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="63" t="s">
+      <c r="B137" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C137" s="64" t="s">
+      <c r="C137" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="D137" s="65"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="46"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="45"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="63" t="s">
+      <c r="B138" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="C138" s="64" t="s">
+      <c r="C138" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="D138" s="65"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="46"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="45"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="63" t="s">
+      <c r="B139" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="C139" s="64" t="s">
+      <c r="C139" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D139" s="65"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="46"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="45"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="63" t="s">
+      <c r="B140" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="C140" s="64" t="s">
+      <c r="C140" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D140" s="65"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="46"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="45"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="63" t="s">
+      <c r="B141" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="C141" s="64" t="s">
+      <c r="C141" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="46"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="45"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="63" t="s">
+      <c r="B142" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="D142" s="65"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="46"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="45"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="63"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="46"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="45"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="42" t="s">
+      <c r="A144" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="B144" s="63"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="46"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="63"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="45"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="C145" s="64" t="s">
+      <c r="C145" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="D145" s="65"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="46"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="45"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="63" t="s">
+      <c r="B146" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="C146" s="64" t="s">
+      <c r="C146" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="D146" s="65"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="46"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="45"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="63" t="s">
+      <c r="B147" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="C147" s="64" t="s">
+      <c r="C147" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="D147" s="65"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="46"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="45"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="63" t="s">
+      <c r="B148" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="C148" s="64" t="s">
+      <c r="C148" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="D148" s="65"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="46"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="45"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="63" t="s">
+      <c r="B149" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="C149" s="64" t="s">
+      <c r="C149" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="D149" s="65"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="46"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="45"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="63" t="s">
+      <c r="B150" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C150" s="64" t="s">
+      <c r="C150" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="D150" s="65"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="46"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="45"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="42" t="s">
+      <c r="A151" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B151" s="63"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="46"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="45"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="63" t="s">
+      <c r="B152" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="C152" s="64" t="s">
+      <c r="C152" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="46"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="45"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="63" t="s">
+      <c r="B153" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="C153" s="64" t="s">
+      <c r="C153" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="D153" s="65"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="46"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="45"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="63" t="s">
+      <c r="B154" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="64" t="s">
+      <c r="C154" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="D154" s="65"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="46"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="45"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="63" t="s">
+      <c r="B155" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="C155" s="64" t="s">
+      <c r="C155" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="D155" s="65"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="46"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="45"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="63" t="s">
+      <c r="B156" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="C156" s="64" t="s">
+      <c r="C156" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D156" s="65"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="46"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="45"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="63" t="s">
+      <c r="B157" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="C157" s="64" t="s">
+      <c r="C157" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D157" s="65"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="46"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="65"/>
+      <c r="F157" s="45"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="63"/>
-      <c r="C158" s="64"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="66"/>
-      <c r="F158" s="46"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="65"/>
+      <c r="F158" s="45"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="63"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="46"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="63"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="45"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>366</v>
       </c>
-      <c r="B160" s="63"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="46"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="63"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="45"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="63" t="s">
+      <c r="B161" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="C161" s="64" t="s">
+      <c r="C161" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="D161" s="65"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="46"/>
+      <c r="D161" s="64"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="45"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="63" t="s">
+      <c r="B162" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="C162" s="64" t="s">
+      <c r="C162" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="D162" s="65"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="46"/>
+      <c r="D162" s="64"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="45"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="63" t="s">
+      <c r="B163" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="C163" s="64" t="s">
+      <c r="C163" s="63" t="s">
         <v>412</v>
       </c>
-      <c r="D163" s="65"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="46"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="45"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="63" t="s">
+      <c r="B164" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="C164" s="64" t="s">
+      <c r="C164" s="63" t="s">
         <v>413</v>
       </c>
-      <c r="D164" s="65"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="46"/>
+      <c r="D164" s="64"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="45"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="63" t="s">
+      <c r="B165" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="C165" s="64" t="s">
+      <c r="C165" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="D165" s="65"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="46"/>
+      <c r="D165" s="64"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="45"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="63" t="s">
+      <c r="B166" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="C166" s="64" t="s">
+      <c r="C166" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="D166" s="65"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="46"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="65"/>
+      <c r="F166" s="45"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="63" t="s">
+      <c r="B167" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="C167" s="64" t="s">
+      <c r="C167" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="D167" s="65"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="46"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="45"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="63" t="s">
+      <c r="B168" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="C168" s="64" t="s">
+      <c r="C168" s="63" t="s">
         <v>417</v>
       </c>
-      <c r="D168" s="65"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="46"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="45"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="63" t="s">
+      <c r="B169" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="C169" s="64" t="s">
+      <c r="C169" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="D169" s="65"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="46"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="45"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="63"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="65"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="46"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="63"/>
+      <c r="D170" s="64"/>
+      <c r="E170" s="65"/>
+      <c r="F170" s="45"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="63"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="66"/>
-      <c r="F171" s="46"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="63"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="45"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="63"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="65"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="46"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="45"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="186" t="s">
+      <c r="A174" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="B174" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D174" s="25" t="s">
+      <c r="D174" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="25" t="s">
+      <c r="E174" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F174" s="26" t="s">
+      <c r="F174" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="187"/>
-      <c r="B175" s="34" t="s">
+      <c r="A175" s="185"/>
+      <c r="B175" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C175" s="44" t="s">
+      <c r="C175" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D175" s="67"/>
-      <c r="E175" s="67" t="s">
+      <c r="D175" s="66"/>
+      <c r="E175" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="F175" s="46"/>
+      <c r="F175" s="45"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="187"/>
-      <c r="B176" s="43" t="s">
+      <c r="A176" s="185"/>
+      <c r="B176" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C176" s="44" t="s">
+      <c r="C176" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D176" s="67"/>
-      <c r="E176" s="67" t="s">
+      <c r="D176" s="66"/>
+      <c r="E176" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="F176" s="46"/>
+      <c r="F176" s="45"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="187"/>
-      <c r="B177" s="34" t="s">
+      <c r="A177" s="185"/>
+      <c r="B177" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C177" s="44" t="s">
+      <c r="C177" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="D177" s="67"/>
-      <c r="E177" s="67" t="s">
+      <c r="D177" s="66"/>
+      <c r="E177" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="F177" s="46"/>
+      <c r="F177" s="45"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="187"/>
-      <c r="B178" s="34" t="s">
+      <c r="A178" s="185"/>
+      <c r="B178" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C178" s="44" t="s">
+      <c r="C178" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D178" s="67"/>
-      <c r="E178" s="67" t="s">
+      <c r="D178" s="66"/>
+      <c r="E178" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="F178" s="46"/>
+      <c r="F178" s="45"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="68"/>
+      <c r="A180" s="67"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="68"/>
+      <c r="A181" s="67"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="68"/>
+      <c r="A182" s="67"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C183" s="69" t="s">
+      <c r="C183" s="68" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D184" s="70" t="s">
+      <c r="D184" s="69" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D185" s="70" t="s">
+      <c r="D185" s="69" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D186" s="70" t="s">
+      <c r="D186" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D187" s="71" t="s">
+      <c r="D187" s="70" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D188" s="36" t="s">
+      <c r="D188" s="35" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D189" s="72"/>
+      <c r="D189" s="71"/>
       <c r="E189" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D190" s="73"/>
+      <c r="D190" s="72"/>
       <c r="E190" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D191" s="141"/>
+      <c r="D191" s="139"/>
       <c r="E191" t="s">
         <v>233</v>
       </c>
@@ -5712,21 +5755,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="152" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
@@ -5738,17 +5781,17 @@
       <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="129" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="102"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -5807,10 +5850,10 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="132"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5829,11 +5872,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5847,16 +5890,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="152" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
@@ -5873,7 +5916,7 @@
         <f>ids_template!B91</f>
         <v>ams_discipline</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="129" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5900,7 +5943,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>425</v>
@@ -5911,7 +5954,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>425</v>
@@ -5922,7 +5965,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>423</v>
@@ -5933,7 +5976,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>423</v>
@@ -5944,7 +5987,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>423</v>
@@ -5955,7 +5998,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>423</v>
@@ -5966,7 +6009,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>423</v>
@@ -5977,7 +6020,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>423</v>
@@ -5988,7 +6031,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>423</v>
@@ -6010,7 +6053,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>425</v>
@@ -6020,10 +6063,10 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="93" t="s">
+      <c r="B16" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>425</v>
       </c>
       <c r="D16" s="6"/>
@@ -6031,10 +6074,10 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C17" s="93" t="s">
+      <c r="B17" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>425</v>
       </c>
       <c r="D17" s="6"/>
@@ -6042,10 +6085,10 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>442</v>
-      </c>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D18" s="6"/>
@@ -6053,10 +6096,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>443</v>
-      </c>
-      <c r="C19" s="93" t="s">
+      <c r="B19" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D19" s="6"/>
@@ -6064,21 +6107,21 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>425</v>
+      <c r="B20" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C21" s="93" t="s">
+      <c r="B21" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D21" s="6"/>
@@ -6087,10 +6130,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>425</v>
+        <v>472</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6098,9 +6141,9 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D23" s="6"/>
@@ -6109,9 +6152,9 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D24" s="6"/>
@@ -6120,10 +6163,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>425</v>
+        <v>474</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -6131,31 +6174,31 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>423</v>
+        <v>458</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>423</v>
+      <c r="B27" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>425</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" s="91" t="s">
         <v>425</v>
       </c>
       <c r="D28" s="6"/>
@@ -6163,78 +6206,122 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
+      <c r="B29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>423</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
+      <c r="B30" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>423</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
+      <c r="B31" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>425</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
+      <c r="B32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>423</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="12"/>
@@ -6260,13 +6347,90 @@
       <c r="E42" s="6"/>
       <c r="F42" s="12"/>
     </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14 C22:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14 C33:C53 C16:C25">
       <formula1>"in,out,inout"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6277,11 +6441,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,7 +6453,7 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
@@ -6299,79 +6463,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="152" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="141" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="142" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="I2" s="140" t="s">
         <v>315</v>
       </c>
-      <c r="J2" s="142" t="s">
+      <c r="J2" s="140" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110" t="s">
-        <v>465</v>
-      </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="102"/>
+        <v>447</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>422</v>
+      <c r="C4" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>459</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6382,13 +6546,13 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="14"/>
       <c r="C5" s="11" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6402,10 +6566,10 @@
       <c r="A6" s="16"/>
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6419,10 +6583,10 @@
       <c r="A7" s="16"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6436,10 +6600,10 @@
       <c r="A8" s="16"/>
       <c r="B8" s="14"/>
       <c r="C8" s="11" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6453,10 +6617,10 @@
       <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="11" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6470,10 +6634,10 @@
       <c r="A10" s="16"/>
       <c r="B10" s="14"/>
       <c r="C10" s="11" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6487,10 +6651,10 @@
       <c r="A11" s="16"/>
       <c r="B11" s="14"/>
       <c r="C11" s="11" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6504,10 +6668,10 @@
       <c r="A12" s="16"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6521,10 +6685,10 @@
       <c r="A13" s="16"/>
       <c r="B13" s="14"/>
       <c r="C13" s="11" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6534,14 +6698,14 @@
       <c r="J13" s="17"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="14"/>
       <c r="C14" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6551,16 +6715,18 @@
       <c r="J14" s="17"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="E15" s="7"/>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108" t="s">
+        <v>450</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6572,10 +6738,10 @@
       <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -6588,8 +6754,12 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
+      <c r="C17" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -6601,8 +6771,12 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -6614,8 +6788,12 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="C19" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -6627,8 +6805,12 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>456</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6640,8 +6822,12 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="C21" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6653,8 +6839,12 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>472</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6666,8 +6856,12 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -6679,8 +6873,12 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -6692,8 +6890,12 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="86"/>
+      <c r="C25" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -6705,8 +6907,12 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>458</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -7196,21 +7402,21 @@
       <c r="J63" s="17"/>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="17"/>
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="14"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -7219,11 +7425,11 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="17"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="14"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -7232,11 +7438,11 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="17"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="14"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -7245,20 +7451,20 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="17"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="22"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -7287,67 +7493,15 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I39:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35:I36">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F64">
       <formula1>"master,slave,system,mirroredMaster,mirroredSlave,mirroredSystem,monitor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7376,11 +7530,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="156" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="140"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -7412,26 +7566,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
+      <c r="E5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7463,56 +7617,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="150" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="148" t="s">
         <v>359</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="163"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="161"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="132" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="132" t="s">
         <v>303</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="132" t="s">
         <v>376</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="132" t="s">
         <v>377</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="132" t="s">
         <v>378</v>
       </c>
-      <c r="H3" s="134" t="s">
+      <c r="H3" s="132" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="134" t="s">
+      <c r="I3" s="132" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="134" t="s">
+      <c r="K3" s="132" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7549,338 +7703,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="150" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="148" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="132" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="132" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="134" t="s">
+      <c r="J2" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="134" t="s">
+      <c r="K2" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="134" t="s">
+      <c r="L2" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="135" t="s">
+      <c r="M2" s="133" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="165"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="117"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="115"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="117"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="117"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="117"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="123"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="165"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="165"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="112"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="165"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="116"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="116"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="116"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7891,12 +8051,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7918,243 +8072,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="154" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="150" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="148" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="134" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="105"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="126" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="171" t="s">
+      <c r="C9" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="173"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="173"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="177"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="177"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="175"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="175"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="177"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="175"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="177"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="175"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="177"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="175"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="170"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="168"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="126" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="81" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
@@ -8173,12 +8327,12 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8221,26 +8375,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="90" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>292</v>
       </c>
       <c r="B3" s="8"/>
@@ -8255,7 +8409,7 @@
       <c r="C4" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="106" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8270,7 +8424,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>293</v>
       </c>
       <c r="B6" s="8"/>
@@ -8364,7 +8518,7 @@
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="12"/>
@@ -8401,21 +8555,21 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="94"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="6"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
